--- a/excels/Semana_2026_06.xlsx
+++ b/excels/Semana_2026_06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abe27d133b37320/Temporal/Flujos de Pago/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abe27d133b37320/Temporal/Flujos de Pago/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBBDCC87-5F17-4B16-BD36-E5684776438E}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C325A912-A806-4708-AC6D-C4DD8F9EDB92}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Villas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="179">
   <si>
     <t>Fecha</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>FETINIC</t>
+  </si>
+  <si>
+    <t>Colones_Ejecutados</t>
+  </si>
+  <si>
+    <t>Dolares_Ejecutados</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -636,16 +642,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,181 +872,180 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="24.42578125" style="6"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>46062</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <v>950000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>46062</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>350000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>46063</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>46063</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>46064</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>125000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>46064</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <v>45000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>46065</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>46066</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>25000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>46066</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>60</v>
       </c>
     </row>
@@ -1061,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C8D7B-692E-44B2-9EBA-B7470FEDD84C}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,11 +1067,13 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,17 +1083,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A11" ca="1" si="0">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>165</v>
@@ -1104,15 +1107,17 @@
       <c r="C2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>165</v>
@@ -1120,15 +1125,17 @@
       <c r="C3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>165</v>
@@ -1136,15 +1143,17 @@
       <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>165</v>
@@ -1152,15 +1161,17 @@
       <c r="C5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>2500000</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>165</v>
@@ -1168,13 +1179,15 @@
       <c r="C6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>165</v>
@@ -1182,15 +1195,17 @@
       <c r="C7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <v>25000</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>165</v>
@@ -1198,15 +1213,17 @@
       <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>165</v>
@@ -1214,15 +1231,17 @@
       <c r="C9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>350600</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>165</v>
@@ -1230,13 +1249,15 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>165</v>
@@ -1245,10 +1266,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1256,17 +1277,17 @@
       <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>1250000</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" ref="A13:A76" ca="1" si="1">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1274,17 +1295,17 @@
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>350000</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -1292,17 +1313,17 @@
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1310,17 +1331,17 @@
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1328,17 +1349,17 @@
       <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1346,33 +1367,33 @@
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -1380,17 +1401,17 @@
       <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>23</v>
@@ -1398,33 +1419,33 @@
       <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>40000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
@@ -1432,17 +1453,17 @@
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -1450,49 +1471,49 @@
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -1500,17 +1521,17 @@
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1518,17 +1539,17 @@
       <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>1600</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1536,17 +1557,17 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1554,17 +1575,17 @@
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1572,47 +1593,47 @@
       <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1620,17 +1641,17 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1638,17 +1659,17 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1656,17 +1677,17 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1674,17 +1695,17 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1692,17 +1713,17 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>200000</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -1710,17 +1731,17 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -1728,17 +1749,17 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1746,77 +1767,77 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>350600</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -1824,17 +1845,17 @@
       <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>18900</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -1842,17 +1863,17 @@
       <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -1860,17 +1881,17 @@
       <c r="C47" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -1878,17 +1899,17 @@
       <c r="C48" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -1896,17 +1917,17 @@
       <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -1914,17 +1935,17 @@
       <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -1932,17 +1953,17 @@
       <c r="C51" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -1950,17 +1971,17 @@
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1968,17 +1989,17 @@
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -1986,17 +2007,17 @@
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2004,17 +2025,17 @@
       <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2022,17 +2043,17 @@
       <c r="C56" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -2040,62 +2061,62 @@
       <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="6">
-        <v>0</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -2103,47 +2124,47 @@
       <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -2151,17 +2172,17 @@
       <c r="C64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="6">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>2500</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -2169,287 +2190,287 @@
       <c r="C65" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="6">
-        <v>0</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="6">
-        <v>0</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-      <c r="E67" s="6">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="6">
-        <v>0</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="6">
-        <v>0</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="6">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="6">
-        <v>0</v>
-      </c>
-      <c r="E72" s="6">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="6">
-        <v>0</v>
-      </c>
-      <c r="E73" s="6">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="6">
-        <v>0</v>
-      </c>
-      <c r="E74" s="6">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="6">
-        <v>0</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" ref="A77:A140" ca="1" si="2">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="6">
-        <v>0</v>
-      </c>
-      <c r="E79" s="6">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="6">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="6">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="6">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -2457,917 +2478,917 @@
       <c r="C84" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="6">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B86" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="6">
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B87" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="6">
-        <v>0</v>
-      </c>
-      <c r="E87" s="6">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="6">
-        <v>0</v>
-      </c>
-      <c r="E88" s="6">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="6">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="6">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B91" t="s">
         <v>43</v>
       </c>
-      <c r="D91" s="6">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B92" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="6">
-        <v>0</v>
-      </c>
-      <c r="E92" s="6">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="6">
-        <v>0</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="6">
-        <v>0</v>
-      </c>
-      <c r="E95" s="6">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B96" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="6">
-        <v>0</v>
-      </c>
-      <c r="E96" s="6">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B97" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="6">
-        <v>0</v>
-      </c>
-      <c r="E97" s="6">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B98" t="s">
         <v>43</v>
       </c>
-      <c r="D98" s="6">
-        <v>0</v>
-      </c>
-      <c r="E98" s="6">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B99" t="s">
         <v>43</v>
       </c>
-      <c r="D99" s="6">
-        <v>0</v>
-      </c>
-      <c r="E99" s="6">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
       </c>
-      <c r="D100" s="6">
-        <v>0</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B101" t="s">
         <v>43</v>
       </c>
-      <c r="D101" s="6">
-        <v>0</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B102" t="s">
         <v>43</v>
       </c>
-      <c r="D102" s="6">
-        <v>0</v>
-      </c>
-      <c r="E102" s="6">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B103" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="6">
-        <v>0</v>
-      </c>
-      <c r="E103" s="6">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B104" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="6">
-        <v>0</v>
-      </c>
-      <c r="E104" s="6">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B105" t="s">
         <v>43</v>
       </c>
-      <c r="D105" s="6">
-        <v>0</v>
-      </c>
-      <c r="E105" s="6">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B106" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="6">
-        <v>0</v>
-      </c>
-      <c r="E106" s="6">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B107" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="6">
-        <v>0</v>
-      </c>
-      <c r="E107" s="6">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B108" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="6">
-        <v>0</v>
-      </c>
-      <c r="E108" s="6">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B109" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="6">
-        <v>0</v>
-      </c>
-      <c r="E109" s="6">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B110" t="s">
         <v>43</v>
       </c>
-      <c r="D110" s="6">
-        <v>0</v>
-      </c>
-      <c r="E110" s="6">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B111" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="6">
-        <v>0</v>
-      </c>
-      <c r="E111" s="6">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="6">
-        <v>0</v>
-      </c>
-      <c r="E112" s="6">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B113" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="6">
-        <v>0</v>
-      </c>
-      <c r="E113" s="6">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B114" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="6">
-        <v>0</v>
-      </c>
-      <c r="E114" s="6">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B115" t="s">
         <v>43</v>
       </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B116" t="s">
         <v>43</v>
       </c>
-      <c r="D116" s="6">
-        <v>0</v>
-      </c>
-      <c r="E116" s="6">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="6">
-        <v>0</v>
-      </c>
-      <c r="E117" s="6">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B118" t="s">
         <v>43</v>
       </c>
-      <c r="D118" s="6">
-        <v>0</v>
-      </c>
-      <c r="E118" s="6">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B119" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="6">
-        <v>0</v>
-      </c>
-      <c r="E119" s="6">
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B120" t="s">
         <v>43</v>
       </c>
-      <c r="D120" s="6">
-        <v>0</v>
-      </c>
-      <c r="E120" s="6">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B121" t="s">
         <v>43</v>
       </c>
-      <c r="D121" s="6">
-        <v>0</v>
-      </c>
-      <c r="E121" s="6">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B122" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="6">
-        <v>0</v>
-      </c>
-      <c r="E122" s="6">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B123" t="s">
         <v>43</v>
       </c>
-      <c r="D123" s="6">
-        <v>0</v>
-      </c>
-      <c r="E123" s="6">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B124" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="6">
-        <v>0</v>
-      </c>
-      <c r="E124" s="6">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B125" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="6">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B126" t="s">
         <v>43</v>
       </c>
-      <c r="D126" s="6">
-        <v>0</v>
-      </c>
-      <c r="E126" s="6">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B127" t="s">
         <v>43</v>
       </c>
-      <c r="D127" s="6">
-        <v>0</v>
-      </c>
-      <c r="E127" s="6">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B128" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="6">
-        <v>0</v>
-      </c>
-      <c r="E128" s="6">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B129" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="6">
-        <v>0</v>
-      </c>
-      <c r="E129" s="6">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B130" t="s">
         <v>43</v>
       </c>
-      <c r="D130" s="6">
-        <v>0</v>
-      </c>
-      <c r="E130" s="6">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B131" t="s">
         <v>43</v>
       </c>
-      <c r="D131" s="6">
-        <v>0</v>
-      </c>
-      <c r="E131" s="6">
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
       </c>
-      <c r="D132" s="6">
-        <v>0</v>
-      </c>
-      <c r="E132" s="6">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="6">
-        <v>0</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="6">
-        <v>0</v>
-      </c>
-      <c r="E134" s="6">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="6">
-        <v>0</v>
-      </c>
-      <c r="E135" s="6">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="6">
-        <v>0</v>
-      </c>
-      <c r="E136" s="6">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
       </c>
-      <c r="D137" s="6">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="6">
-        <v>0</v>
-      </c>
-      <c r="E138" s="6">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
-      <c r="D139" s="6">
-        <v>0</v>
-      </c>
-      <c r="E139" s="6">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
       </c>
-      <c r="D140" s="6">
-        <v>0</v>
-      </c>
-      <c r="E140" s="6">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <f t="shared" ref="A141:A204" ca="1" si="3">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
       </c>
-      <c r="D141" s="6">
-        <v>0</v>
-      </c>
-      <c r="E141" s="6">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B142" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="6">
-        <v>0</v>
-      </c>
-      <c r="E142" s="6">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B143" t="s">
         <v>43</v>
       </c>
-      <c r="D143" s="6">
-        <v>0</v>
-      </c>
-      <c r="E143" s="6">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B144" t="s">
         <v>43</v>
       </c>
-      <c r="D144" s="6">
-        <v>0</v>
-      </c>
-      <c r="E144" s="6">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B145" t="s">
         <v>24</v>
@@ -3375,17 +3396,17 @@
       <c r="C145" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="6">
-        <v>0</v>
-      </c>
-      <c r="E145" s="6">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B146" t="s">
         <v>24</v>
@@ -3393,32 +3414,32 @@
       <c r="C146" t="s">
         <v>92</v>
       </c>
-      <c r="D146" s="6">
-        <v>0</v>
-      </c>
-      <c r="E146" s="6">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B147" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="6">
-        <v>0</v>
-      </c>
-      <c r="E147" s="6">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B148" t="s">
         <v>24</v>
@@ -3426,17 +3447,17 @@
       <c r="C148" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="6">
-        <v>0</v>
-      </c>
-      <c r="E148" s="6">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
@@ -3444,32 +3465,32 @@
       <c r="C149" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="6">
-        <v>0</v>
-      </c>
-      <c r="E149" s="6">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B150" t="s">
         <v>24</v>
       </c>
-      <c r="D150" s="6">
-        <v>0</v>
-      </c>
-      <c r="E150" s="6">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B151" t="s">
         <v>44</v>
@@ -3477,17 +3498,17 @@
       <c r="C151" t="s">
         <v>95</v>
       </c>
-      <c r="D151" s="6">
-        <v>0</v>
-      </c>
-      <c r="E151" s="6">
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B152" t="s">
         <v>44</v>
@@ -3495,17 +3516,17 @@
       <c r="C152" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="6">
-        <v>0</v>
-      </c>
-      <c r="E152" s="6">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B153" t="s">
         <v>44</v>
@@ -3513,17 +3534,17 @@
       <c r="C153" t="s">
         <v>97</v>
       </c>
-      <c r="D153" s="6">
-        <v>0</v>
-      </c>
-      <c r="E153" s="6">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B154" t="s">
         <v>44</v>
@@ -3531,17 +3552,17 @@
       <c r="C154" t="s">
         <v>98</v>
       </c>
-      <c r="D154" s="6">
-        <v>0</v>
-      </c>
-      <c r="E154" s="6">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B155" t="s">
         <v>44</v>
@@ -3549,17 +3570,17 @@
       <c r="C155" t="s">
         <v>99</v>
       </c>
-      <c r="D155" s="6">
-        <v>0</v>
-      </c>
-      <c r="E155" s="6">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B156" t="s">
         <v>44</v>
@@ -3567,17 +3588,17 @@
       <c r="C156" t="s">
         <v>100</v>
       </c>
-      <c r="D156" s="6">
-        <v>0</v>
-      </c>
-      <c r="E156" s="6">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B157" t="s">
         <v>44</v>
@@ -3585,17 +3606,17 @@
       <c r="C157" t="s">
         <v>101</v>
       </c>
-      <c r="D157" s="6">
-        <v>0</v>
-      </c>
-      <c r="E157" s="6">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B158" t="s">
         <v>44</v>
@@ -3603,17 +3624,17 @@
       <c r="C158" t="s">
         <v>102</v>
       </c>
-      <c r="D158" s="6">
-        <v>0</v>
-      </c>
-      <c r="E158" s="6">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B159" t="s">
         <v>44</v>
@@ -3621,17 +3642,17 @@
       <c r="C159" t="s">
         <v>103</v>
       </c>
-      <c r="D159" s="6">
-        <v>0</v>
-      </c>
-      <c r="E159" s="6">
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B160" t="s">
         <v>44</v>
@@ -3639,17 +3660,17 @@
       <c r="C160" t="s">
         <v>104</v>
       </c>
-      <c r="D160" s="6">
-        <v>0</v>
-      </c>
-      <c r="E160" s="6">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B161" t="s">
         <v>44</v>
@@ -3657,17 +3678,17 @@
       <c r="C161" t="s">
         <v>98</v>
       </c>
-      <c r="D161" s="6">
-        <v>0</v>
-      </c>
-      <c r="E161" s="6">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
@@ -3675,17 +3696,17 @@
       <c r="C162" t="s">
         <v>105</v>
       </c>
-      <c r="D162" s="6">
-        <v>0</v>
-      </c>
-      <c r="E162" s="6">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B163" t="s">
         <v>45</v>
@@ -3693,17 +3714,17 @@
       <c r="C163" t="s">
         <v>106</v>
       </c>
-      <c r="D163" s="6">
-        <v>0</v>
-      </c>
-      <c r="E163" s="6">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B164" t="s">
         <v>45</v>
@@ -3711,17 +3732,17 @@
       <c r="C164" t="s">
         <v>107</v>
       </c>
-      <c r="D164" s="6">
-        <v>0</v>
-      </c>
-      <c r="E164" s="6">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
@@ -3729,17 +3750,17 @@
       <c r="C165" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="6">
-        <v>0</v>
-      </c>
-      <c r="E165" s="6">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B166" t="s">
         <v>45</v>
@@ -3747,17 +3768,17 @@
       <c r="C166" t="s">
         <v>109</v>
       </c>
-      <c r="D166" s="6">
-        <v>0</v>
-      </c>
-      <c r="E166" s="6">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -3765,17 +3786,17 @@
       <c r="C167" t="s">
         <v>110</v>
       </c>
-      <c r="D167" s="6">
-        <v>0</v>
-      </c>
-      <c r="E167" s="6">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B168" t="s">
         <v>45</v>
@@ -3783,17 +3804,17 @@
       <c r="C168" t="s">
         <v>111</v>
       </c>
-      <c r="D168" s="6">
-        <v>0</v>
-      </c>
-      <c r="E168" s="6">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B169" t="s">
         <v>45</v>
@@ -3801,17 +3822,17 @@
       <c r="C169" t="s">
         <v>112</v>
       </c>
-      <c r="D169" s="6">
-        <v>0</v>
-      </c>
-      <c r="E169" s="6">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B170" t="s">
         <v>45</v>
@@ -3819,17 +3840,17 @@
       <c r="C170" t="s">
         <v>113</v>
       </c>
-      <c r="D170" s="6">
-        <v>0</v>
-      </c>
-      <c r="E170" s="6">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B171" t="s">
         <v>45</v>
@@ -3837,17 +3858,17 @@
       <c r="C171" t="s">
         <v>114</v>
       </c>
-      <c r="D171" s="6">
-        <v>0</v>
-      </c>
-      <c r="E171" s="6">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B172" t="s">
         <v>45</v>
@@ -3855,17 +3876,17 @@
       <c r="C172" t="s">
         <v>115</v>
       </c>
-      <c r="D172" s="6">
-        <v>0</v>
-      </c>
-      <c r="E172" s="6">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -3873,17 +3894,17 @@
       <c r="C173" t="s">
         <v>116</v>
       </c>
-      <c r="D173" s="6">
-        <v>0</v>
-      </c>
-      <c r="E173" s="6">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -3891,17 +3912,17 @@
       <c r="C174" t="s">
         <v>117</v>
       </c>
-      <c r="D174" s="6">
-        <v>0</v>
-      </c>
-      <c r="E174" s="6">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -3909,17 +3930,17 @@
       <c r="C175" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="6">
-        <v>0</v>
-      </c>
-      <c r="E175" s="6">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B176" t="s">
         <v>28</v>
@@ -3927,17 +3948,17 @@
       <c r="C176" t="s">
         <v>119</v>
       </c>
-      <c r="D176" s="6">
-        <v>0</v>
-      </c>
-      <c r="E176" s="6">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
@@ -3945,17 +3966,17 @@
       <c r="C177" t="s">
         <v>120</v>
       </c>
-      <c r="D177" s="6">
-        <v>0</v>
-      </c>
-      <c r="E177" s="6">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B178" t="s">
         <v>28</v>
@@ -3963,17 +3984,17 @@
       <c r="C178" t="s">
         <v>121</v>
       </c>
-      <c r="D178" s="6">
-        <v>0</v>
-      </c>
-      <c r="E178" s="6">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B179" t="s">
         <v>28</v>
@@ -3981,17 +4002,17 @@
       <c r="C179" t="s">
         <v>122</v>
       </c>
-      <c r="D179" s="6">
-        <v>0</v>
-      </c>
-      <c r="E179" s="6">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B180" t="s">
         <v>28</v>
@@ -3999,17 +4020,17 @@
       <c r="C180" t="s">
         <v>123</v>
       </c>
-      <c r="D180" s="6">
-        <v>0</v>
-      </c>
-      <c r="E180" s="6">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B181" t="s">
         <v>28</v>
@@ -4017,17 +4038,17 @@
       <c r="C181" t="s">
         <v>124</v>
       </c>
-      <c r="D181" s="6">
-        <v>0</v>
-      </c>
-      <c r="E181" s="6">
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B182" t="s">
         <v>28</v>
@@ -4035,17 +4056,17 @@
       <c r="C182" t="s">
         <v>125</v>
       </c>
-      <c r="D182" s="6">
-        <v>0</v>
-      </c>
-      <c r="E182" s="6">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B183" t="s">
         <v>28</v>
@@ -4053,17 +4074,17 @@
       <c r="C183" t="s">
         <v>126</v>
       </c>
-      <c r="D183" s="6">
-        <v>0</v>
-      </c>
-      <c r="E183" s="6">
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -4071,17 +4092,17 @@
       <c r="C184" t="s">
         <v>127</v>
       </c>
-      <c r="D184" s="6">
-        <v>0</v>
-      </c>
-      <c r="E184" s="6">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -4089,17 +4110,17 @@
       <c r="C185" t="s">
         <v>128</v>
       </c>
-      <c r="D185" s="6">
-        <v>0</v>
-      </c>
-      <c r="E185" s="6">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B186" t="s">
         <v>28</v>
@@ -4107,17 +4128,17 @@
       <c r="C186" t="s">
         <v>129</v>
       </c>
-      <c r="D186" s="6">
-        <v>0</v>
-      </c>
-      <c r="E186" s="6">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B187" t="s">
         <v>28</v>
@@ -4125,17 +4146,17 @@
       <c r="C187" t="s">
         <v>130</v>
       </c>
-      <c r="D187" s="6">
-        <v>0</v>
-      </c>
-      <c r="E187" s="6">
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B188" t="s">
         <v>28</v>
@@ -4143,17 +4164,17 @@
       <c r="C188" t="s">
         <v>131</v>
       </c>
-      <c r="D188" s="6">
-        <v>0</v>
-      </c>
-      <c r="E188" s="6">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B189" t="s">
         <v>28</v>
@@ -4161,17 +4182,17 @@
       <c r="C189" t="s">
         <v>132</v>
       </c>
-      <c r="D189" s="6">
-        <v>0</v>
-      </c>
-      <c r="E189" s="6">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
@@ -4179,17 +4200,17 @@
       <c r="C190" t="s">
         <v>133</v>
       </c>
-      <c r="D190" s="6">
-        <v>0</v>
-      </c>
-      <c r="E190" s="6">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -4197,17 +4218,17 @@
       <c r="C191" t="s">
         <v>134</v>
       </c>
-      <c r="D191" s="6">
-        <v>0</v>
-      </c>
-      <c r="E191" s="6">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
@@ -4215,17 +4236,17 @@
       <c r="C192" t="s">
         <v>135</v>
       </c>
-      <c r="D192" s="6">
-        <v>0</v>
-      </c>
-      <c r="E192" s="6">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B193" t="s">
         <v>27</v>
@@ -4233,17 +4254,17 @@
       <c r="C193" t="s">
         <v>136</v>
       </c>
-      <c r="D193" s="6">
-        <v>0</v>
-      </c>
-      <c r="E193" s="6">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -4251,17 +4272,17 @@
       <c r="C194" t="s">
         <v>137</v>
       </c>
-      <c r="D194" s="6">
-        <v>0</v>
-      </c>
-      <c r="E194" s="6">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
@@ -4269,17 +4290,17 @@
       <c r="C195" t="s">
         <v>138</v>
       </c>
-      <c r="D195" s="6">
-        <v>0</v>
-      </c>
-      <c r="E195" s="6">
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
@@ -4287,17 +4308,17 @@
       <c r="C196" t="s">
         <v>139</v>
       </c>
-      <c r="D196" s="6">
-        <v>0</v>
-      </c>
-      <c r="E196" s="6">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B197" t="s">
         <v>27</v>
@@ -4305,17 +4326,17 @@
       <c r="C197" t="s">
         <v>140</v>
       </c>
-      <c r="D197" s="6">
-        <v>0</v>
-      </c>
-      <c r="E197" s="6">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
@@ -4323,17 +4344,17 @@
       <c r="C198" t="s">
         <v>141</v>
       </c>
-      <c r="D198" s="6">
-        <v>0</v>
-      </c>
-      <c r="E198" s="6">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
@@ -4341,17 +4362,17 @@
       <c r="C199" t="s">
         <v>142</v>
       </c>
-      <c r="D199" s="6">
-        <v>0</v>
-      </c>
-      <c r="E199" s="6">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -4359,17 +4380,17 @@
       <c r="C200" t="s">
         <v>143</v>
       </c>
-      <c r="D200" s="6">
-        <v>0</v>
-      </c>
-      <c r="E200" s="6">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
@@ -4377,17 +4398,17 @@
       <c r="C201" t="s">
         <v>144</v>
       </c>
-      <c r="D201" s="6">
-        <v>0</v>
-      </c>
-      <c r="E201" s="6">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B202" t="s">
         <v>27</v>
@@ -4395,47 +4416,47 @@
       <c r="C202" t="s">
         <v>145</v>
       </c>
-      <c r="D202" s="6">
-        <v>0</v>
-      </c>
-      <c r="E202" s="6">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B203" t="s">
         <v>46</v>
       </c>
-      <c r="D203" s="6">
-        <v>0</v>
-      </c>
-      <c r="E203" s="6">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B204" t="s">
         <v>46</v>
       </c>
-      <c r="D204" s="6">
-        <v>0</v>
-      </c>
-      <c r="E204" s="6">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <f t="shared" ref="A205:A230" ca="1" si="4">TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B205" t="s">
         <v>47</v>
@@ -4443,17 +4464,17 @@
       <c r="C205" t="s">
         <v>65</v>
       </c>
-      <c r="D205" s="6">
-        <v>0</v>
-      </c>
-      <c r="E205" s="6">
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B206" t="s">
         <v>48</v>
@@ -4461,17 +4482,17 @@
       <c r="C206" t="s">
         <v>146</v>
       </c>
-      <c r="D206" s="6">
-        <v>0</v>
-      </c>
-      <c r="E206" s="6">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B207" t="s">
         <v>48</v>
@@ -4479,17 +4500,17 @@
       <c r="C207" t="s">
         <v>147</v>
       </c>
-      <c r="D207" s="6">
-        <v>0</v>
-      </c>
-      <c r="E207" s="6">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B208" t="s">
         <v>48</v>
@@ -4497,17 +4518,17 @@
       <c r="C208" t="s">
         <v>148</v>
       </c>
-      <c r="D208" s="6">
-        <v>0</v>
-      </c>
-      <c r="E208" s="6">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B209" t="s">
         <v>48</v>
@@ -4515,17 +4536,17 @@
       <c r="C209" t="s">
         <v>149</v>
       </c>
-      <c r="D209" s="6">
-        <v>0</v>
-      </c>
-      <c r="E209" s="6">
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B210" t="s">
         <v>49</v>
@@ -4533,17 +4554,17 @@
       <c r="C210" t="s">
         <v>150</v>
       </c>
-      <c r="D210" s="6">
-        <v>0</v>
-      </c>
-      <c r="E210" s="6">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B211" t="s">
         <v>49</v>
@@ -4551,17 +4572,17 @@
       <c r="C211" t="s">
         <v>151</v>
       </c>
-      <c r="D211" s="6">
-        <v>0</v>
-      </c>
-      <c r="E211" s="6">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B212" t="s">
         <v>49</v>
@@ -4569,77 +4590,77 @@
       <c r="C212" t="s">
         <v>152</v>
       </c>
-      <c r="D212" s="6">
-        <v>0</v>
-      </c>
-      <c r="E212" s="6">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B213" t="s">
         <v>49</v>
       </c>
-      <c r="D213" s="6">
-        <v>0</v>
-      </c>
-      <c r="E213" s="6">
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B214" t="s">
         <v>50</v>
       </c>
-      <c r="D214" s="6">
-        <v>0</v>
-      </c>
-      <c r="E214" s="6">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B215" t="s">
         <v>50</v>
       </c>
-      <c r="D215" s="6">
-        <v>0</v>
-      </c>
-      <c r="E215" s="6">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B216" t="s">
         <v>51</v>
       </c>
-      <c r="D216" s="6">
-        <v>0</v>
-      </c>
-      <c r="E216" s="6">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B217" t="s">
         <v>51</v>
@@ -4647,17 +4668,17 @@
       <c r="C217" t="s">
         <v>153</v>
       </c>
-      <c r="D217" s="6">
-        <v>0</v>
-      </c>
-      <c r="E217" s="6">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B218" t="s">
         <v>52</v>
@@ -4665,17 +4686,17 @@
       <c r="C218" t="s">
         <v>65</v>
       </c>
-      <c r="D218" s="6">
-        <v>0</v>
-      </c>
-      <c r="E218" s="6">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B219" t="s">
         <v>52</v>
@@ -4683,17 +4704,17 @@
       <c r="C219" t="s">
         <v>154</v>
       </c>
-      <c r="D219" s="6">
-        <v>0</v>
-      </c>
-      <c r="E219" s="6">
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B220" t="s">
         <v>52</v>
@@ -4701,17 +4722,17 @@
       <c r="C220" t="s">
         <v>155</v>
       </c>
-      <c r="D220" s="6">
-        <v>0</v>
-      </c>
-      <c r="E220" s="6">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B221" t="s">
         <v>26</v>
@@ -4719,17 +4740,17 @@
       <c r="C221" t="s">
         <v>156</v>
       </c>
-      <c r="D221" s="6">
-        <v>0</v>
-      </c>
-      <c r="E221" s="6">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B222" t="s">
         <v>26</v>
@@ -4737,32 +4758,32 @@
       <c r="C222" t="s">
         <v>157</v>
       </c>
-      <c r="D222" s="6">
-        <v>0</v>
-      </c>
-      <c r="E222" s="6">
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B223" t="s">
         <v>26</v>
       </c>
-      <c r="D223" s="6">
-        <v>0</v>
-      </c>
-      <c r="E223" s="6">
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B224" t="s">
         <v>26</v>
@@ -4770,17 +4791,17 @@
       <c r="C224" t="s">
         <v>158</v>
       </c>
-      <c r="D224" s="6">
-        <v>0</v>
-      </c>
-      <c r="E224" s="6">
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B225" t="s">
         <v>26</v>
@@ -4788,17 +4809,17 @@
       <c r="C225" t="s">
         <v>159</v>
       </c>
-      <c r="D225" s="6">
-        <v>0</v>
-      </c>
-      <c r="E225" s="6">
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B226" t="s">
         <v>26</v>
@@ -4806,17 +4827,17 @@
       <c r="C226" t="s">
         <v>160</v>
       </c>
-      <c r="D226" s="6">
-        <v>0</v>
-      </c>
-      <c r="E226" s="6">
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B227" t="s">
         <v>53</v>
@@ -4824,17 +4845,17 @@
       <c r="C227" t="s">
         <v>161</v>
       </c>
-      <c r="D227" s="6">
-        <v>0</v>
-      </c>
-      <c r="E227" s="6">
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B228" t="s">
         <v>53</v>
@@ -4842,17 +4863,17 @@
       <c r="C228" t="s">
         <v>162</v>
       </c>
-      <c r="D228" s="6">
-        <v>0</v>
-      </c>
-      <c r="E228" s="6">
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B229" t="s">
         <v>54</v>
@@ -4860,17 +4881,17 @@
       <c r="C229" t="s">
         <v>163</v>
       </c>
-      <c r="D229" s="6">
-        <v>0</v>
-      </c>
-      <c r="E229" s="6">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B230" t="s">
         <v>54</v>
@@ -4878,14 +4899,15 @@
       <c r="C230" t="s">
         <v>164</v>
       </c>
-      <c r="D230" s="6">
-        <v>0</v>
-      </c>
-      <c r="E230" s="6">
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/Semana_2026_06.xlsx
+++ b/excels/Semana_2026_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abe27d133b37320/Temporal/Flujos de Pago/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C325A912-A806-4708-AC6D-C4DD8F9EDB92}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B129162D-768E-42F2-A483-11FA750A874E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Villas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="179">
   <si>
     <t>Fecha</t>
   </si>
@@ -495,9 +495,6 @@
     <t>PAGO POLIZAS INS</t>
   </si>
   <si>
-    <t>PAGO POLIZA INS CAMION</t>
-  </si>
-  <si>
     <t>BANCO PICHINCHA</t>
   </si>
   <si>
@@ -567,13 +564,16 @@
     <t>GUATUSO $ BCR</t>
   </si>
   <si>
-    <t>FETINIC</t>
-  </si>
-  <si>
     <t>Colones_Ejecutados</t>
   </si>
   <si>
     <t>Dolares_Ejecutados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PAGO POLIZA SEGURO PLANTACION</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C8D7B-692E-44B2-9EBA-B7470FEDD84C}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1073,7 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,22 +1090,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A11" ca="1" si="0">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
@@ -1117,13 +1117,13 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -1135,13 +1135,13 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -1153,13 +1153,13 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3">
         <v>2500000</v>
@@ -1171,13 +1171,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1187,13 +1187,13 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="3">
         <v>25000</v>
@@ -1205,13 +1205,13 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1223,13 +1223,13 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="3">
         <v>350600</v>
@@ -1241,13 +1241,13 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1257,19 +1257,19 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f ca="1">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1278,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>1250000</v>
+        <v>7813745.3300000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1287,7 +1287,7 @@
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" ref="A13:A76" ca="1" si="1">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1296,7 +1296,7 @@
         <v>56</v>
       </c>
       <c r="D13">
-        <v>350000</v>
+        <v>4388486.32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -1314,7 +1314,7 @@
         <v>57</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>15526528.73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1341,7 +1341,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1359,7 +1359,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1377,7 +1377,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
@@ -1393,7 +1393,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -1411,7 +1411,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>23</v>
@@ -1420,7 +1420,7 @@
         <v>62</v>
       </c>
       <c r="D20">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
@@ -1445,7 +1445,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
@@ -1463,7 +1463,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -1481,7 +1481,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -1497,7 +1497,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
@@ -1513,7 +1513,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1576,7 +1576,7 @@
         <v>68</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>285361.11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1585,7 +1585,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1603,7 +1603,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1618,7 +1618,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1633,7 +1633,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1651,7 +1651,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1669,7 +1669,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1687,7 +1687,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1705,7 +1705,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1714,7 +1714,7 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -1741,7 +1741,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -1759,7 +1759,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1777,13 +1777,13 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="D41">
-        <v>350600</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1807,7 +1807,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -1822,7 +1822,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -1837,7 +1837,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>18900</v>
+        <v>14315.7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -1863,8 +1863,8 @@
       <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="D46" t="s">
+        <v>177</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1873,7 +1873,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -1891,7 +1891,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -1909,7 +1909,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -1927,7 +1927,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -1945,7 +1945,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -1954,7 +1954,7 @@
         <v>82</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1039692.1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>83</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>302876.31</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1981,7 +1981,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1999,7 +1999,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>85</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>37290</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2017,7 +2017,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2026,7 +2026,7 @@
         <v>86</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>489826.56</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2035,7 +2035,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         <v>87</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>19399.990000000002</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2053,7 +2053,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -2071,7 +2071,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -2086,7 +2086,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
@@ -2101,7 +2101,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
@@ -2116,7 +2116,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -2134,7 +2134,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -2149,7 +2149,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -2164,43 +2164,39 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -2215,7 +2211,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -2230,7 +2226,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -2245,7 +2241,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -2260,7 +2256,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -2275,7 +2271,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -2290,7 +2286,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -2305,7 +2301,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -2320,7 +2316,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -2335,7 +2331,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -2350,7 +2346,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -2365,7 +2361,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" ref="A77:A140" ca="1" si="2">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -2380,7 +2376,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -2395,7 +2391,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -2410,7 +2406,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -2425,7 +2421,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -2440,7 +2436,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
@@ -2455,7 +2451,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -2470,7 +2466,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -2488,7 +2484,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -2503,7 +2499,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B86" t="s">
         <v>43</v>
@@ -2518,7 +2514,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B87" t="s">
         <v>43</v>
@@ -2533,7 +2529,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
@@ -2548,7 +2544,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
@@ -2563,7 +2559,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
@@ -2578,7 +2574,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B91" t="s">
         <v>43</v>
@@ -2593,7 +2589,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B92" t="s">
         <v>43</v>
@@ -2608,7 +2604,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
@@ -2623,7 +2619,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
@@ -2638,7 +2634,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
@@ -2653,7 +2649,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B96" t="s">
         <v>43</v>
@@ -2668,7 +2664,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B97" t="s">
         <v>43</v>
@@ -2683,7 +2679,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B98" t="s">
         <v>43</v>
@@ -2698,7 +2694,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B99" t="s">
         <v>43</v>
@@ -2713,7 +2709,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
@@ -2728,7 +2724,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B101" t="s">
         <v>43</v>
@@ -2743,7 +2739,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B102" t="s">
         <v>43</v>
@@ -2758,7 +2754,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B103" t="s">
         <v>43</v>
@@ -2773,7 +2769,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B104" t="s">
         <v>43</v>
@@ -2788,7 +2784,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B105" t="s">
         <v>43</v>
@@ -2803,7 +2799,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B106" t="s">
         <v>43</v>
@@ -2818,7 +2814,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B107" t="s">
         <v>43</v>
@@ -2833,7 +2829,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B108" t="s">
         <v>43</v>
@@ -2848,7 +2844,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B109" t="s">
         <v>43</v>
@@ -2863,7 +2859,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B110" t="s">
         <v>43</v>
@@ -2878,7 +2874,7 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B111" t="s">
         <v>43</v>
@@ -2893,7 +2889,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -2908,7 +2904,7 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B113" t="s">
         <v>43</v>
@@ -2923,7 +2919,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B114" t="s">
         <v>43</v>
@@ -2938,7 +2934,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B115" t="s">
         <v>43</v>
@@ -2953,7 +2949,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B116" t="s">
         <v>43</v>
@@ -2968,7 +2964,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
@@ -2983,7 +2979,7 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B118" t="s">
         <v>43</v>
@@ -2998,7 +2994,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B119" t="s">
         <v>43</v>
@@ -3013,7 +3009,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B120" t="s">
         <v>43</v>
@@ -3028,7 +3024,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B121" t="s">
         <v>43</v>
@@ -3043,7 +3039,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B122" t="s">
         <v>43</v>
@@ -3058,7 +3054,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B123" t="s">
         <v>43</v>
@@ -3073,7 +3069,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B124" t="s">
         <v>43</v>
@@ -3088,7 +3084,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B125" t="s">
         <v>43</v>
@@ -3103,7 +3099,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B126" t="s">
         <v>43</v>
@@ -3118,7 +3114,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B127" t="s">
         <v>43</v>
@@ -3133,7 +3129,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B128" t="s">
         <v>43</v>
@@ -3148,7 +3144,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B129" t="s">
         <v>43</v>
@@ -3163,7 +3159,7 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B130" t="s">
         <v>43</v>
@@ -3178,7 +3174,7 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B131" t="s">
         <v>43</v>
@@ -3193,7 +3189,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B132" t="s">
         <v>43</v>
@@ -3208,7 +3204,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B133" t="s">
         <v>43</v>
@@ -3223,7 +3219,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B134" t="s">
         <v>43</v>
@@ -3238,7 +3234,7 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B135" t="s">
         <v>43</v>
@@ -3253,7 +3249,7 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B136" t="s">
         <v>43</v>
@@ -3268,7 +3264,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B137" t="s">
         <v>43</v>
@@ -3283,7 +3279,7 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B138" t="s">
         <v>43</v>
@@ -3298,7 +3294,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
@@ -3313,7 +3309,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B140" t="s">
         <v>43</v>
@@ -3328,7 +3324,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <f t="shared" ref="A141:A204" ca="1" si="3">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B141" t="s">
         <v>43</v>
@@ -3343,7 +3339,7 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B142" t="s">
         <v>43</v>
@@ -3358,7 +3354,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B143" t="s">
         <v>43</v>
@@ -3373,7 +3369,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B144" t="s">
         <v>43</v>
@@ -3388,7 +3384,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B145" t="s">
         <v>24</v>
@@ -3400,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B146" t="s">
         <v>24</v>
@@ -3424,7 +3420,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B147" t="s">
         <v>24</v>
@@ -3439,7 +3435,7 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B148" t="s">
         <v>24</v>
@@ -3451,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>52244.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
@@ -3469,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B150" t="s">
         <v>24</v>
@@ -3490,7 +3486,7 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B151" t="s">
         <v>44</v>
@@ -3508,7 +3504,7 @@
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B152" t="s">
         <v>44</v>
@@ -3526,7 +3522,7 @@
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B153" t="s">
         <v>44</v>
@@ -3535,7 +3531,7 @@
         <v>97</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>317500</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3544,7 +3540,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B154" t="s">
         <v>44</v>
@@ -3562,7 +3558,7 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B155" t="s">
         <v>44</v>
@@ -3580,7 +3576,7 @@
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B156" t="s">
         <v>44</v>
@@ -3598,7 +3594,7 @@
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B157" t="s">
         <v>44</v>
@@ -3616,7 +3612,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B158" t="s">
         <v>44</v>
@@ -3625,7 +3621,7 @@
         <v>102</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>580000</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3634,7 +3630,7 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B159" t="s">
         <v>44</v>
@@ -3652,7 +3648,7 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B160" t="s">
         <v>44</v>
@@ -3670,7 +3666,7 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B161" t="s">
         <v>44</v>
@@ -3688,7 +3684,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
@@ -3706,7 +3702,7 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B163" t="s">
         <v>45</v>
@@ -3718,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B164" t="s">
         <v>45</v>
@@ -3736,13 +3732,13 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
@@ -3760,7 +3756,7 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B166" t="s">
         <v>45</v>
@@ -3772,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1412.5</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -3796,7 +3792,7 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B168" t="s">
         <v>45</v>
@@ -3814,7 +3810,7 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B169" t="s">
         <v>45</v>
@@ -3826,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B170" t="s">
         <v>45</v>
@@ -3850,7 +3846,7 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B171" t="s">
         <v>45</v>
@@ -3868,7 +3864,7 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B172" t="s">
         <v>45</v>
@@ -3886,7 +3882,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -3904,7 +3900,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -3916,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -3934,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>965</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B176" t="s">
         <v>28</v>
@@ -3958,7 +3954,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
@@ -3976,7 +3972,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B178" t="s">
         <v>28</v>
@@ -3985,7 +3981,7 @@
         <v>121</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>604324.46</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -3994,7 +3990,7 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B179" t="s">
         <v>28</v>
@@ -4003,7 +3999,7 @@
         <v>122</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>983248.1</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4012,7 +4008,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B180" t="s">
         <v>28</v>
@@ -4030,7 +4026,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B181" t="s">
         <v>28</v>
@@ -4048,7 +4044,7 @@
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B182" t="s">
         <v>28</v>
@@ -4066,7 +4062,7 @@
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B183" t="s">
         <v>28</v>
@@ -4075,7 +4071,7 @@
         <v>126</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>717071.83</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4084,7 +4080,7 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -4102,7 +4098,7 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -4120,7 +4116,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B186" t="s">
         <v>28</v>
@@ -4138,7 +4134,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B187" t="s">
         <v>28</v>
@@ -4156,7 +4152,7 @@
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B188" t="s">
         <v>28</v>
@@ -4174,7 +4170,7 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B189" t="s">
         <v>28</v>
@@ -4192,7 +4188,7 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
@@ -4210,7 +4206,7 @@
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -4222,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
@@ -4240,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B193" t="s">
         <v>27</v>
@@ -4258,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>4708.7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -4276,13 +4272,13 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>8336.77</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B195" t="s">
         <v>27</v>
@@ -4294,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>587.20000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
@@ -4312,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>16602.330000000002</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B197" t="s">
         <v>27</v>
@@ -4330,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>6542.73</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
@@ -4354,7 +4350,7 @@
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
@@ -4366,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>4450.8</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -4384,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
@@ -4408,7 +4404,7 @@
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B202" t="s">
         <v>27</v>
@@ -4420,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>17148.72</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B203" t="s">
         <v>46</v>
@@ -4441,7 +4437,7 @@
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B204" t="s">
         <v>46</v>
@@ -4456,7 +4452,7 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <f t="shared" ref="A205:A230" ca="1" si="4">TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B205" t="s">
         <v>47</v>
@@ -4474,7 +4470,7 @@
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B206" t="s">
         <v>48</v>
@@ -4492,7 +4488,7 @@
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B207" t="s">
         <v>48</v>
@@ -4504,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>3469.62</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B208" t="s">
         <v>48</v>
@@ -4528,7 +4524,7 @@
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B209" t="s">
         <v>48</v>
@@ -4546,7 +4542,7 @@
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B210" t="s">
         <v>49</v>
@@ -4564,7 +4560,7 @@
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B211" t="s">
         <v>49</v>
@@ -4582,25 +4578,25 @@
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B212" t="s">
         <v>49</v>
       </c>
       <c r="C212" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>5420.62</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B213" t="s">
         <v>49</v>
@@ -4615,7 +4611,7 @@
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B214" t="s">
         <v>50</v>
@@ -4630,7 +4626,7 @@
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B215" t="s">
         <v>50</v>
@@ -4645,7 +4641,7 @@
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B216" t="s">
         <v>51</v>
@@ -4660,13 +4656,13 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B217" t="s">
         <v>51</v>
       </c>
       <c r="C217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -4678,7 +4674,7 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B218" t="s">
         <v>52</v>
@@ -4696,13 +4692,13 @@
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B219" t="s">
         <v>52</v>
       </c>
       <c r="C219" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4714,13 +4710,13 @@
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B220" t="s">
         <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -4732,13 +4728,13 @@
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B221" t="s">
         <v>26</v>
       </c>
       <c r="C221" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4750,13 +4746,13 @@
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B222" t="s">
         <v>26</v>
       </c>
       <c r="C222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4768,7 +4764,7 @@
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B223" t="s">
         <v>26</v>
@@ -4783,13 +4779,13 @@
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B224" t="s">
         <v>26</v>
       </c>
       <c r="C224" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -4801,13 +4797,13 @@
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B225" t="s">
         <v>26</v>
       </c>
       <c r="C225" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4819,13 +4815,13 @@
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B226" t="s">
         <v>26</v>
       </c>
       <c r="C226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -4837,13 +4833,13 @@
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B227" t="s">
         <v>53</v>
       </c>
       <c r="C227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4855,13 +4851,13 @@
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B228" t="s">
         <v>53</v>
       </c>
       <c r="C228" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -4873,13 +4869,13 @@
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B229" t="s">
         <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -4891,13 +4887,13 @@
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B230" t="s">
         <v>54</v>
       </c>
       <c r="C230" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D230">
         <v>0</v>

--- a/excels/Semana_2026_06.xlsx
+++ b/excels/Semana_2026_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abe27d133b37320/Temporal/Flujos de Pago/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B129162D-768E-42F2-A483-11FA750A874E}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6268CBA6-732B-43F9-B18A-10253FB7DAF6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C8D7B-692E-44B2-9EBA-B7470FEDD84C}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,8 +1067,8 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
@@ -1232,7 +1232,7 @@
         <v>171</v>
       </c>
       <c r="D9" s="3">
-        <v>350600</v>
+        <v>350600.1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1265,6 +1265,8 @@
       <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1277,10 +1279,10 @@
       <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>7813745.3300000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1295,10 +1297,10 @@
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>4388486.32</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1313,10 +1315,10 @@
       <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>15526528.73</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1331,10 +1333,10 @@
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1349,10 +1351,10 @@
       <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1367,10 +1369,10 @@
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1383,10 +1385,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1401,10 +1403,10 @@
       <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1419,10 +1421,10 @@
       <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1435,10 +1437,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1453,10 +1455,10 @@
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1471,10 +1473,10 @@
       <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1487,10 +1489,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1503,10 +1505,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1521,10 +1523,10 @@
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1539,10 +1541,10 @@
       <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1557,10 +1559,10 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1575,10 +1577,10 @@
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>285361.11</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1593,10 +1595,10 @@
       <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1608,10 +1610,10 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1623,10 +1625,10 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1641,10 +1643,10 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1659,10 +1661,10 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1677,10 +1679,10 @@
       <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1695,10 +1697,10 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1713,10 +1715,10 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1731,10 +1733,10 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1749,10 +1751,10 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1767,10 +1769,10 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1782,10 +1784,10 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1797,10 +1799,10 @@
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1812,10 +1814,10 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1827,10 +1829,10 @@
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1845,10 +1847,10 @@
       <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>14315.7</v>
       </c>
     </row>
@@ -1863,10 +1865,10 @@
       <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1881,10 +1883,10 @@
       <c r="C47" t="s">
         <v>79</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1899,10 +1901,10 @@
       <c r="C48" t="s">
         <v>80</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1917,10 +1919,10 @@
       <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1935,10 +1937,10 @@
       <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1953,10 +1955,10 @@
       <c r="C51" t="s">
         <v>82</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>1039692.1</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1971,10 +1973,10 @@
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>302876.31</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1989,10 +1991,10 @@
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2007,10 +2009,10 @@
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>37290</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2025,10 +2027,10 @@
       <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>489826.56</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2043,10 +2045,10 @@
       <c r="C56" t="s">
         <v>87</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>19399.990000000002</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2061,10 +2063,10 @@
       <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2076,10 +2078,10 @@
       <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2091,10 +2093,10 @@
       <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2106,10 +2108,10 @@
       <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2124,10 +2126,10 @@
       <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2139,10 +2141,10 @@
       <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2154,10 +2156,10 @@
       <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2170,10 +2172,10 @@
         <v>25</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2186,10 +2188,10 @@
         <v>25</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2201,10 +2203,10 @@
       <c r="B66" t="s">
         <v>25</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2216,10 +2218,10 @@
       <c r="B67" t="s">
         <v>25</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2231,10 +2233,10 @@
       <c r="B68" t="s">
         <v>25</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2246,10 +2248,10 @@
       <c r="B69" t="s">
         <v>25</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2261,10 +2263,10 @@
       <c r="B70" t="s">
         <v>25</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2276,10 +2278,10 @@
       <c r="B71" t="s">
         <v>25</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2291,10 +2293,10 @@
       <c r="B72" t="s">
         <v>25</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2306,10 +2308,10 @@
       <c r="B73" t="s">
         <v>25</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2321,10 +2323,10 @@
       <c r="B74" t="s">
         <v>25</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2336,10 +2338,10 @@
       <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2351,10 +2353,10 @@
       <c r="B76" t="s">
         <v>25</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2366,10 +2368,10 @@
       <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2381,10 +2383,10 @@
       <c r="B78" t="s">
         <v>25</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2396,10 +2398,10 @@
       <c r="B79" t="s">
         <v>25</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2411,10 +2413,10 @@
       <c r="B80" t="s">
         <v>25</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2426,10 +2428,10 @@
       <c r="B81" t="s">
         <v>9</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2441,10 +2443,10 @@
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2456,10 +2458,10 @@
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2474,10 +2476,10 @@
       <c r="C84" t="s">
         <v>90</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2489,10 +2491,10 @@
       <c r="B85" t="s">
         <v>42</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2504,10 +2506,10 @@
       <c r="B86" t="s">
         <v>43</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2519,10 +2521,10 @@
       <c r="B87" t="s">
         <v>43</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2534,10 +2536,10 @@
       <c r="B88" t="s">
         <v>43</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2549,10 +2551,10 @@
       <c r="B89" t="s">
         <v>43</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2564,10 +2566,10 @@
       <c r="B90" t="s">
         <v>43</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2579,10 +2581,10 @@
       <c r="B91" t="s">
         <v>43</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2594,10 +2596,10 @@
       <c r="B92" t="s">
         <v>43</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2609,10 +2611,10 @@
       <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2624,10 +2626,10 @@
       <c r="B94" t="s">
         <v>43</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2639,10 +2641,10 @@
       <c r="B95" t="s">
         <v>43</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2654,10 +2656,10 @@
       <c r="B96" t="s">
         <v>43</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2669,10 +2671,10 @@
       <c r="B97" t="s">
         <v>43</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2684,10 +2686,10 @@
       <c r="B98" t="s">
         <v>43</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2699,10 +2701,10 @@
       <c r="B99" t="s">
         <v>43</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2714,10 +2716,10 @@
       <c r="B100" t="s">
         <v>43</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2729,10 +2731,10 @@
       <c r="B101" t="s">
         <v>43</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2744,10 +2746,10 @@
       <c r="B102" t="s">
         <v>43</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2759,10 +2761,10 @@
       <c r="B103" t="s">
         <v>43</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2774,10 +2776,10 @@
       <c r="B104" t="s">
         <v>43</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2789,10 +2791,10 @@
       <c r="B105" t="s">
         <v>43</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2804,10 +2806,10 @@
       <c r="B106" t="s">
         <v>43</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2819,10 +2821,10 @@
       <c r="B107" t="s">
         <v>43</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2834,10 +2836,10 @@
       <c r="B108" t="s">
         <v>43</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2849,10 +2851,10 @@
       <c r="B109" t="s">
         <v>43</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2864,10 +2866,10 @@
       <c r="B110" t="s">
         <v>43</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2879,10 +2881,10 @@
       <c r="B111" t="s">
         <v>43</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2894,10 +2896,10 @@
       <c r="B112" t="s">
         <v>43</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2909,10 +2911,10 @@
       <c r="B113" t="s">
         <v>43</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2924,10 +2926,10 @@
       <c r="B114" t="s">
         <v>43</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2939,10 +2941,10 @@
       <c r="B115" t="s">
         <v>43</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2954,10 +2956,10 @@
       <c r="B116" t="s">
         <v>43</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2969,10 +2971,10 @@
       <c r="B117" t="s">
         <v>43</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2984,10 +2986,10 @@
       <c r="B118" t="s">
         <v>43</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2999,10 +3001,10 @@
       <c r="B119" t="s">
         <v>43</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3014,10 +3016,10 @@
       <c r="B120" t="s">
         <v>43</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3029,10 +3031,10 @@
       <c r="B121" t="s">
         <v>43</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3044,10 +3046,10 @@
       <c r="B122" t="s">
         <v>43</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3059,10 +3061,10 @@
       <c r="B123" t="s">
         <v>43</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3074,10 +3076,10 @@
       <c r="B124" t="s">
         <v>43</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3089,10 +3091,10 @@
       <c r="B125" t="s">
         <v>43</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3104,10 +3106,10 @@
       <c r="B126" t="s">
         <v>43</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3119,10 +3121,10 @@
       <c r="B127" t="s">
         <v>43</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3134,10 +3136,10 @@
       <c r="B128" t="s">
         <v>43</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3149,10 +3151,10 @@
       <c r="B129" t="s">
         <v>43</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3164,10 +3166,10 @@
       <c r="B130" t="s">
         <v>43</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3179,10 +3181,10 @@
       <c r="B131" t="s">
         <v>43</v>
       </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3194,10 +3196,10 @@
       <c r="B132" t="s">
         <v>43</v>
       </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3209,10 +3211,10 @@
       <c r="B133" t="s">
         <v>43</v>
       </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3224,10 +3226,10 @@
       <c r="B134" t="s">
         <v>43</v>
       </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3239,10 +3241,10 @@
       <c r="B135" t="s">
         <v>43</v>
       </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3254,10 +3256,10 @@
       <c r="B136" t="s">
         <v>43</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3269,10 +3271,10 @@
       <c r="B137" t="s">
         <v>43</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3284,10 +3286,10 @@
       <c r="B138" t="s">
         <v>43</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3299,10 +3301,10 @@
       <c r="B139" t="s">
         <v>43</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3314,10 +3316,10 @@
       <c r="B140" t="s">
         <v>43</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3329,10 +3331,10 @@
       <c r="B141" t="s">
         <v>43</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3344,10 +3346,10 @@
       <c r="B142" t="s">
         <v>43</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3359,10 +3361,10 @@
       <c r="B143" t="s">
         <v>43</v>
       </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3374,10 +3376,10 @@
       <c r="B144" t="s">
         <v>43</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3392,10 +3394,10 @@
       <c r="C145" t="s">
         <v>91</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
         <v>4896</v>
       </c>
     </row>
@@ -3410,10 +3412,10 @@
       <c r="C146" t="s">
         <v>92</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3425,10 +3427,10 @@
       <c r="B147" t="s">
         <v>24</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3443,10 +3445,10 @@
       <c r="C148" t="s">
         <v>93</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
         <v>52244.5</v>
       </c>
     </row>
@@ -3461,10 +3463,10 @@
       <c r="C149" t="s">
         <v>94</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
         <v>2355</v>
       </c>
     </row>
@@ -3476,10 +3478,10 @@
       <c r="B150" t="s">
         <v>24</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3494,10 +3496,10 @@
       <c r="C151" t="s">
         <v>95</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3512,10 +3514,10 @@
       <c r="C152" t="s">
         <v>96</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3530,10 +3532,10 @@
       <c r="C153" t="s">
         <v>97</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
         <v>317500</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3548,10 +3550,10 @@
       <c r="C154" t="s">
         <v>98</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3566,10 +3568,10 @@
       <c r="C155" t="s">
         <v>99</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3584,10 +3586,10 @@
       <c r="C156" t="s">
         <v>100</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3602,10 +3604,10 @@
       <c r="C157" t="s">
         <v>101</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3620,10 +3622,10 @@
       <c r="C158" t="s">
         <v>102</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
         <v>580000</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3638,10 +3640,10 @@
       <c r="C159" t="s">
         <v>103</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3656,10 +3658,10 @@
       <c r="C160" t="s">
         <v>104</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3674,10 +3676,10 @@
       <c r="C161" t="s">
         <v>98</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3692,10 +3694,10 @@
       <c r="C162" t="s">
         <v>105</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3710,10 +3712,10 @@
       <c r="C163" t="s">
         <v>106</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
         <v>375</v>
       </c>
     </row>
@@ -3728,10 +3730,10 @@
       <c r="C164" t="s">
         <v>107</v>
       </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3">
         <v>200</v>
       </c>
     </row>
@@ -3746,10 +3748,10 @@
       <c r="C165" t="s">
         <v>108</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3764,10 +3766,10 @@
       <c r="C166" t="s">
         <v>109</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3">
         <v>1412.5</v>
       </c>
     </row>
@@ -3782,10 +3784,10 @@
       <c r="C167" t="s">
         <v>110</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3800,10 +3802,10 @@
       <c r="C168" t="s">
         <v>111</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3818,10 +3820,10 @@
       <c r="C169" t="s">
         <v>112</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
         <v>288</v>
       </c>
     </row>
@@ -3836,10 +3838,10 @@
       <c r="C170" t="s">
         <v>113</v>
       </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3854,10 +3856,10 @@
       <c r="C171" t="s">
         <v>114</v>
       </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3872,10 +3874,10 @@
       <c r="C172" t="s">
         <v>115</v>
       </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3890,10 +3892,10 @@
       <c r="C173" t="s">
         <v>116</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3908,10 +3910,10 @@
       <c r="C174" t="s">
         <v>117</v>
       </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="3">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3">
         <v>300</v>
       </c>
     </row>
@@ -3926,10 +3928,10 @@
       <c r="C175" t="s">
         <v>118</v>
       </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3">
         <v>965</v>
       </c>
     </row>
@@ -3944,10 +3946,10 @@
       <c r="C176" t="s">
         <v>119</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
+      <c r="D176" s="3">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3962,10 +3964,10 @@
       <c r="C177" t="s">
         <v>120</v>
       </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3980,10 +3982,10 @@
       <c r="C178" t="s">
         <v>121</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
         <v>604324.46</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3998,10 +4000,10 @@
       <c r="C179" t="s">
         <v>122</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
         <v>983248.1</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4016,10 +4018,10 @@
       <c r="C180" t="s">
         <v>123</v>
       </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4034,10 +4036,10 @@
       <c r="C181" t="s">
         <v>124</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4052,10 +4054,10 @@
       <c r="C182" t="s">
         <v>125</v>
       </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
+      <c r="D182" s="3">
+        <v>0</v>
+      </c>
+      <c r="E182" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4070,10 +4072,10 @@
       <c r="C183" t="s">
         <v>126</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="3">
         <v>717071.83</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4088,10 +4090,10 @@
       <c r="C184" t="s">
         <v>127</v>
       </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+      <c r="E184" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4106,10 +4108,10 @@
       <c r="C185" t="s">
         <v>128</v>
       </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
+      <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4124,10 +4126,10 @@
       <c r="C186" t="s">
         <v>129</v>
       </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4142,10 +4144,10 @@
       <c r="C187" t="s">
         <v>130</v>
       </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4160,10 +4162,10 @@
       <c r="C188" t="s">
         <v>131</v>
       </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4178,10 +4180,10 @@
       <c r="C189" t="s">
         <v>132</v>
       </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
+      <c r="D189" s="3">
+        <v>0</v>
+      </c>
+      <c r="E189" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4196,10 +4198,10 @@
       <c r="C190" t="s">
         <v>133</v>
       </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4214,10 +4216,10 @@
       <c r="C191" t="s">
         <v>134</v>
       </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -4232,10 +4234,10 @@
       <c r="C192" t="s">
         <v>135</v>
       </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+      <c r="E192" s="3">
         <v>13616</v>
       </c>
     </row>
@@ -4250,10 +4252,10 @@
       <c r="C193" t="s">
         <v>136</v>
       </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="3">
         <v>4708.7</v>
       </c>
     </row>
@@ -4268,10 +4270,10 @@
       <c r="C194" t="s">
         <v>137</v>
       </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="3">
         <v>8336.77</v>
       </c>
     </row>
@@ -4286,10 +4288,10 @@
       <c r="C195" t="s">
         <v>138</v>
       </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="3">
         <v>587.20000000000005</v>
       </c>
     </row>
@@ -4304,10 +4306,10 @@
       <c r="C196" t="s">
         <v>139</v>
       </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3">
         <v>16602.330000000002</v>
       </c>
     </row>
@@ -4322,10 +4324,10 @@
       <c r="C197" t="s">
         <v>140</v>
       </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
+      <c r="D197" s="3">
+        <v>0</v>
+      </c>
+      <c r="E197" s="3">
         <v>6542.73</v>
       </c>
     </row>
@@ -4340,10 +4342,10 @@
       <c r="C198" t="s">
         <v>141</v>
       </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4358,10 +4360,10 @@
       <c r="C199" t="s">
         <v>142</v>
       </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3">
         <v>4450.8</v>
       </c>
     </row>
@@ -4376,10 +4378,10 @@
       <c r="C200" t="s">
         <v>143</v>
       </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3">
         <v>1880</v>
       </c>
     </row>
@@ -4394,10 +4396,10 @@
       <c r="C201" t="s">
         <v>144</v>
       </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4412,10 +4414,10 @@
       <c r="C202" t="s">
         <v>145</v>
       </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3">
         <v>17148.72</v>
       </c>
     </row>
@@ -4427,10 +4429,10 @@
       <c r="B203" t="s">
         <v>46</v>
       </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
+      <c r="D203" s="3">
+        <v>0</v>
+      </c>
+      <c r="E203" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4442,10 +4444,10 @@
       <c r="B204" t="s">
         <v>46</v>
       </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
+      <c r="D204" s="3">
+        <v>0</v>
+      </c>
+      <c r="E204" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4460,10 +4462,10 @@
       <c r="C205" t="s">
         <v>65</v>
       </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4478,10 +4480,10 @@
       <c r="C206" t="s">
         <v>146</v>
       </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4496,10 +4498,10 @@
       <c r="C207" t="s">
         <v>147</v>
       </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3">
         <v>3469.62</v>
       </c>
     </row>
@@ -4514,10 +4516,10 @@
       <c r="C208" t="s">
         <v>148</v>
       </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4532,10 +4534,10 @@
       <c r="C209" t="s">
         <v>149</v>
       </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
+      <c r="D209" s="3">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4550,10 +4552,10 @@
       <c r="C210" t="s">
         <v>150</v>
       </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
+      <c r="D210" s="3">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4568,10 +4570,10 @@
       <c r="C211" t="s">
         <v>151</v>
       </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
+      <c r="D211" s="3">
+        <v>0</v>
+      </c>
+      <c r="E211" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4586,10 +4588,10 @@
       <c r="C212" t="s">
         <v>178</v>
       </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212">
+      <c r="D212" s="3">
+        <v>0</v>
+      </c>
+      <c r="E212" s="3">
         <v>5420.62</v>
       </c>
     </row>
@@ -4601,10 +4603,10 @@
       <c r="B213" t="s">
         <v>49</v>
       </c>
-      <c r="D213">
-        <v>0</v>
-      </c>
-      <c r="E213">
+      <c r="D213" s="3">
+        <v>0</v>
+      </c>
+      <c r="E213" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4616,10 +4618,10 @@
       <c r="B214" t="s">
         <v>50</v>
       </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214">
+      <c r="D214" s="3">
+        <v>0</v>
+      </c>
+      <c r="E214" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4631,10 +4633,10 @@
       <c r="B215" t="s">
         <v>50</v>
       </c>
-      <c r="D215">
-        <v>0</v>
-      </c>
-      <c r="E215">
+      <c r="D215" s="3">
+        <v>0</v>
+      </c>
+      <c r="E215" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4646,10 +4648,10 @@
       <c r="B216" t="s">
         <v>51</v>
       </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
+      <c r="D216" s="3">
+        <v>0</v>
+      </c>
+      <c r="E216" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4664,10 +4666,10 @@
       <c r="C217" t="s">
         <v>152</v>
       </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217">
+      <c r="D217" s="3">
+        <v>0</v>
+      </c>
+      <c r="E217" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4682,10 +4684,10 @@
       <c r="C218" t="s">
         <v>65</v>
       </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
+      <c r="D218" s="3">
+        <v>0</v>
+      </c>
+      <c r="E218" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4700,10 +4702,10 @@
       <c r="C219" t="s">
         <v>153</v>
       </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219">
+      <c r="D219" s="3">
+        <v>0</v>
+      </c>
+      <c r="E219" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4718,10 +4720,10 @@
       <c r="C220" t="s">
         <v>154</v>
       </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4736,10 +4738,10 @@
       <c r="C221" t="s">
         <v>155</v>
       </c>
-      <c r="D221">
-        <v>0</v>
-      </c>
-      <c r="E221">
+      <c r="D221" s="3">
+        <v>0</v>
+      </c>
+      <c r="E221" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4754,10 +4756,10 @@
       <c r="C222" t="s">
         <v>156</v>
       </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
+      <c r="D222" s="3">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4769,10 +4771,10 @@
       <c r="B223" t="s">
         <v>26</v>
       </c>
-      <c r="D223">
-        <v>0</v>
-      </c>
-      <c r="E223">
+      <c r="D223" s="3">
+        <v>0</v>
+      </c>
+      <c r="E223" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4787,10 +4789,10 @@
       <c r="C224" t="s">
         <v>157</v>
       </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+      <c r="E224" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4805,10 +4807,10 @@
       <c r="C225" t="s">
         <v>158</v>
       </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+      <c r="E225" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4823,10 +4825,10 @@
       <c r="C226" t="s">
         <v>159</v>
       </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4841,10 +4843,10 @@
       <c r="C227" t="s">
         <v>160</v>
       </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227">
+      <c r="D227" s="3">
+        <v>0</v>
+      </c>
+      <c r="E227" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4859,10 +4861,10 @@
       <c r="C228" t="s">
         <v>161</v>
       </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
+      <c r="D228" s="3">
+        <v>0</v>
+      </c>
+      <c r="E228" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4877,10 +4879,10 @@
       <c r="C229" t="s">
         <v>162</v>
       </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229">
+      <c r="D229" s="3">
+        <v>0</v>
+      </c>
+      <c r="E229" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4895,10 +4897,10 @@
       <c r="C230" t="s">
         <v>163</v>
       </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
+      <c r="D230" s="3">
+        <v>0</v>
+      </c>
+      <c r="E230" s="3">
         <v>0</v>
       </c>
     </row>

--- a/excels/Semana_2026_06.xlsx
+++ b/excels/Semana_2026_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abe27d133b37320/Temporal/Flujos de Pago/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6268CBA6-732B-43F9-B18A-10253FB7DAF6}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_A28A860E899B08AE274A865D480D2EDAB32FDEF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7069EDFC-4798-4A94-BA9D-CCF2C32B0ECB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="214">
   <si>
     <t>Fecha</t>
   </si>
@@ -570,10 +570,115 @@
     <t>Dolares_Ejecutados</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PAGO POLIZA SEGURO PLANTACION</t>
+  </si>
+  <si>
+    <t>EARTHCROP S.A OC 8433 (COMPRA DE MIRAGE )</t>
+  </si>
+  <si>
+    <t>ENLACE AGROPECUARIO OC 8434 (COMPRA DE TECNOSILIX)</t>
+  </si>
+  <si>
+    <t>UPL COSTA RICA S.A OC 8438 (COMPRA DE BELTANOL)</t>
+  </si>
+  <si>
+    <t>David Salazar Serrano OC 8415 (COMORA DE FILTRO ACTIVO 03-003)</t>
+  </si>
+  <si>
+    <t>3-101809221 OC 8421 (COMPRA DE ARRANCADOR ACTIVO 00-025)</t>
+  </si>
+  <si>
+    <t>David Salazar Serrano OC 8440 (COMPRA DE ELECTROVALVULA ACTIVO 03-001)</t>
+  </si>
+  <si>
+    <t>ECONOVA OC 8457 (COMPRA DE MATRICES PARA EL LABORATORIO)</t>
+  </si>
+  <si>
+    <t>David Salazar Serrano OC 8461 (COMPRA DE SELLOS, ROLL Y MOTOR HIDRAULICO ACTIVO 03-003)</t>
+  </si>
+  <si>
+    <t>ABONOS DEL PACIFICO S.A OC 8462 (COMPRA DE UREA, CALCIO, AMONIO, MAGNESIO)</t>
+  </si>
+  <si>
+    <t>BIOCAMPO OC 8464 (COMPRA DE SILWET APLICACIONES SEMANA 07)</t>
+  </si>
+  <si>
+    <t>ENLACE AGROPECUARIO OC 8469 (COMPRA DE PROCTESOL SOLAR SEMANA 07)</t>
+  </si>
+  <si>
+    <t>UPL COSTA RICA S.A OC 8472 (COMPEA DE BELTANOL APLICACIONES SEMANA 07)</t>
+  </si>
+  <si>
+    <t>YARA COSTA RICA S.R.L OC 8473 (COMPRA DE AZUTECK, COMPLEX Y WHITE BALANCE)</t>
+  </si>
+  <si>
+    <t>ChemTica Internacional S.A OC 8494 (COMPRA DE FEROMONAS)</t>
+  </si>
+  <si>
+    <t>KEVIN TIJERINO ARAGON OC 8369 (SERVICIO DE MANTENIMIENTO Y REPARACION DE AC LABORATORIOY CASA)</t>
+  </si>
+  <si>
+    <t>DIXIE ARLEY JIMENEZ OC 8142 (COMPRA DE ROLL ACTIVO 07-006)</t>
+  </si>
+  <si>
+    <t>Alquimia Industrial S,A OC 8449 (COMPRA DE LIMPIEZA PARA LABORATORIO Y COCINA)</t>
+  </si>
+  <si>
+    <t>GRUPO WEFEL OC 8122 (COMPRA DE REPUESTOS ACTIVO 00-019)</t>
+  </si>
+  <si>
+    <t>BATERIAS LA BODEGUITA OC 8453 (COMPRA DE BATERIA ACTIVO 00-019,00-021 Y 00-041)</t>
+  </si>
+  <si>
+    <t>GRUPO WEFEL OC 8454 (COMPRA DE REPUESTOS ACTIVO 00-018)</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS CASTILLO CASTILLO OC 8459 (COMPRA DE MECATE PARA SEMILLA Y SIEMBRA)</t>
+  </si>
+  <si>
+    <t>CENTRAL DE BOLSAS PLASTICAS OC 8460 (COMPRA DE BOLSAS PARA EL LABORATORIO)</t>
+  </si>
+  <si>
+    <t>Green Go S,A OC 8476 (COMPRA DE SET DE EMPAQUES CARGADOR MILITAR )</t>
+  </si>
+  <si>
+    <t>GRUPO WEFEL OC 8480 (COMPRA DE FILTRO PARA MASEY FERGUSON)</t>
+  </si>
+  <si>
+    <t>Cristian Arroyo Zuñiga OC 8481 (COMPRA DE MANGAS ARMI)</t>
+  </si>
+  <si>
+    <t>GRUPO WEFEL OC 8484 (COMPRA DE ACOPLES PARA TRACTORES)</t>
+  </si>
+  <si>
+    <t>CENTRAL DE BOLSAS PLASTICAS OC 8487 (COMPRA DE BOLSA NEGRA PARA CONTROL DE CABEZA ROJA)</t>
+  </si>
+  <si>
+    <t>GASOLINERA KATIRA S.A. OC 8489 (COMPRA DE GASOLINA BODEGA)</t>
+  </si>
+  <si>
+    <t>Liga Agrícola Industrial de la Caña de Azúcar OC 8490 (COMPRA DE MIEL )</t>
+  </si>
+  <si>
+    <t>LA CASA DE LOS ROLES S.A. OC 8491 (COMPRA DE ROLES Y RETENEDORES CARRETAS)</t>
+  </si>
+  <si>
+    <t>Llantas Importadas Llisa S,A OC 8492 (COMPRA DE LLANTAS Y NEUMATICOS 12,5L15 CARRETAS)</t>
+  </si>
+  <si>
+    <t>LLANTAS DEL PACIFICO SAN CARLOS S.A OC 8493 (COMPRA DE NEUMATICOS PARA LA BODEGA )</t>
+  </si>
+  <si>
+    <t>Alquimia Industrial S,A OC 8496 (COMPRA DE TOALLS, DTERGENTE PAPEL Y ESCOBA PARA TALLER)</t>
+  </si>
+  <si>
+    <t>Alquimia Industrial S,A OC 8495 (COMPRA DE PALAS Y ESCOBA BODEGA INSUMOS)</t>
+  </si>
+  <si>
+    <t>Servicios Electrónicos Azocar Ltda. OC 8497 (COMPRA DE ROMANA PARA BODEGA)</t>
+  </si>
+  <si>
+    <t>Tecnología Extrema San Carlos Limitada OC 8498 (COMPRA DE 2 COMPUTADORAS PARA USO PREPARACION Y SEMILLA YS IEMBRA)</t>
   </si>
 </sst>
 </file>
@@ -657,10 +762,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1160,7 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1210,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1127,7 +1228,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>250</v>
+        <v>24668.7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1145,7 +1246,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>75</v>
+        <v>0.35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1162,7 +1263,7 @@
         <v>168</v>
       </c>
       <c r="D5" s="3">
-        <v>2500000</v>
+        <v>814393.5</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1179,7 +1280,9 @@
       <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1196,7 +1299,7 @@
         <v>170</v>
       </c>
       <c r="D7" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1215,7 +1318,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>896.27</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1232,7 +1335,7 @@
         <v>171</v>
       </c>
       <c r="D9" s="3">
-        <v>350600.1</v>
+        <v>6279138.0199999996</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1250,7 +1353,9 @@
         <v>172</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>34976.21</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -1265,7 +1370,9 @@
       <c r="C11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1316,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>15526528.73</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1334,7 +1441,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>2385537.27</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1352,7 +1459,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1152391.92</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1370,7 +1477,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>406190.3</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1716,7 +1823,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>346621.65</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -1865,8 +1972,8 @@
       <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>177</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2156,11 +2263,14 @@
       <c r="B63" t="s">
         <v>25</v>
       </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
       <c r="D63" s="3">
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>0</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2171,12 +2281,14 @@
       <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="D64" s="3">
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2187,12 +2299,14 @@
       <c r="B65" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2203,11 +2317,14 @@
       <c r="B66" t="s">
         <v>25</v>
       </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
       <c r="D66" s="3">
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2218,11 +2335,14 @@
       <c r="B67" t="s">
         <v>25</v>
       </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
       <c r="D67" s="3">
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>521.66</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,11 +2353,14 @@
       <c r="B68" t="s">
         <v>25</v>
       </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
       <c r="D68" s="3">
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>419.98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2248,11 +2371,14 @@
       <c r="B69" t="s">
         <v>25</v>
       </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>0</v>
+        <v>59.849899999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2263,11 +2389,14 @@
       <c r="B70" t="s">
         <v>25</v>
       </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
       <c r="D70" s="3">
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1923.48</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,11 +2407,14 @@
       <c r="B71" t="s">
         <v>25</v>
       </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
       <c r="D71" s="3">
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>0</v>
+        <v>27837.424999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,11 +2425,14 @@
       <c r="B72" t="s">
         <v>25</v>
       </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
       <c r="D72" s="3">
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2308,11 +2443,14 @@
       <c r="B73" t="s">
         <v>25</v>
       </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
       <c r="D73" s="3">
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2323,11 +2461,14 @@
       <c r="B74" t="s">
         <v>25</v>
       </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2338,11 +2479,14 @@
       <c r="B75" t="s">
         <v>25</v>
       </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
       <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <v>0</v>
+        <v>29175</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,11 +2497,14 @@
       <c r="B76" t="s">
         <v>25</v>
       </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
       <c r="D76" s="3">
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2506,8 +2653,11 @@
       <c r="B86" t="s">
         <v>43</v>
       </c>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
@@ -2521,6 +2671,9 @@
       <c r="B87" t="s">
         <v>43</v>
       </c>
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
       <c r="D87" s="3">
         <v>0</v>
       </c>
@@ -2536,8 +2689,11 @@
       <c r="B88" t="s">
         <v>43</v>
       </c>
+      <c r="C88" t="s">
+        <v>194</v>
+      </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>34552.53</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -2551,8 +2707,11 @@
       <c r="B89" t="s">
         <v>43</v>
       </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>353147.41</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2566,8 +2725,11 @@
       <c r="B90" t="s">
         <v>43</v>
       </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>199860</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
@@ -2581,8 +2743,11 @@
       <c r="B91" t="s">
         <v>43</v>
       </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>871065.64</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2596,8 +2761,11 @@
       <c r="B92" t="s">
         <v>43</v>
       </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>26813.48</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -2611,8 +2779,11 @@
       <c r="B93" t="s">
         <v>43</v>
       </c>
+      <c r="C93" t="s">
+        <v>199</v>
+      </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>108265.33</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
@@ -2626,8 +2797,11 @@
       <c r="B94" t="s">
         <v>43</v>
       </c>
+      <c r="C94" t="s">
+        <v>200</v>
+      </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>157831.85</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2641,8 +2815,11 @@
       <c r="B95" t="s">
         <v>43</v>
       </c>
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>37272.6</v>
       </c>
       <c r="E95" s="3">
         <v>0</v>
@@ -2656,8 +2833,11 @@
       <c r="B96" t="s">
         <v>43</v>
       </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2671,8 +2851,11 @@
       <c r="B97" t="s">
         <v>43</v>
       </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>189412.36</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
@@ -2686,8 +2869,11 @@
       <c r="B98" t="s">
         <v>43</v>
       </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
       <c r="D98" s="3">
-        <v>0</v>
+        <v>26175.05</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -2701,8 +2887,11 @@
       <c r="B99" t="s">
         <v>43</v>
       </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>177300</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
@@ -2716,8 +2905,11 @@
       <c r="B100" t="s">
         <v>43</v>
       </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2391680</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -2731,8 +2923,11 @@
       <c r="B101" t="s">
         <v>43</v>
       </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>176320</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -2746,8 +2941,11 @@
       <c r="B102" t="s">
         <v>43</v>
       </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>342800</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -2761,8 +2959,11 @@
       <c r="B103" t="s">
         <v>43</v>
       </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>124480.02</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
@@ -2776,8 +2977,11 @@
       <c r="B104" t="s">
         <v>43</v>
       </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>31901.0069</v>
       </c>
       <c r="E104" s="3">
         <v>0</v>
@@ -2791,8 +2995,11 @@
       <c r="B105" t="s">
         <v>43</v>
       </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>8655.01</v>
       </c>
       <c r="E105" s="3">
         <v>0</v>
@@ -2806,8 +3013,11 @@
       <c r="B106" t="s">
         <v>43</v>
       </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>222893.8</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
@@ -2821,8 +3031,11 @@
       <c r="B107" t="s">
         <v>43</v>
       </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>514000</v>
       </c>
       <c r="E107" s="3">
         <v>0</v>
@@ -4586,7 +4799,7 @@
         <v>49</v>
       </c>
       <c r="C212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D212" s="3">
         <v>0</v>
@@ -4742,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="3">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4793,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="3">
-        <v>0</v>
+        <v>673.41</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4829,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
